--- a/spreadsheets/processed.xlsx
+++ b/spreadsheets/processed.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="1 - Mako # 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="1 - Mako #01" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="2 - Train and Sector 7 Night" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="3 - Train thru Mako # 5" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="3 - Train to Mako #05" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="4 - Sector 5 and Aeris" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="5 - Wall Market" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="6 - Sewers to Plate Fall" sheetId="6" r:id="rId9"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9154" uniqueCount="6127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9170" uniqueCount="6134">
   <si>
     <t>Who goes there!?</t>
   </si>
@@ -17242,10 +17242,34 @@
     <t>TIFAにはないしょにしといてあげるね</t>
   </si>
   <si>
-    <t>Looks like I can rest here. Sleep Don't want to sleep Received "Potion"! Received "Ether"! Received "Phoenix Down"! AERIS's House Marlene “Daddy, TIFA, CLOUD! Please bring AERIS back!</t>
-  </si>
-  <si>
-    <t>ここで眠れるな……眠る眠りたくない『ポーション』を手にいれた！『エーテル』を手にいれた！『フェニックスの尾』を手にいれた！AERITHの家２Ｆマリン「とうちゃん、TIFA、CLOUD！ちゃ～んとAERITH助けてきてね}</t>
+    <t>Looks like I can rest here.</t>
+  </si>
+  <si>
+    <t>ここで眠れるな……</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>眠る</t>
+  </si>
+  <si>
+    <t>Don't want to sleep</t>
+  </si>
+  <si>
+    <t>眠りたくない</t>
+  </si>
+  <si>
+    <t>AERIS's House</t>
+  </si>
+  <si>
+    <t>AERITHの家２Ｆ</t>
+  </si>
+  <si>
+    <t>Daddy, TIFA, CLOUD! Please bring AERIS back!</t>
+  </si>
+  <si>
+    <t>とうちゃん、TIFA、CLOUD！ちゃ～んとAERITH助けてきてね</t>
   </si>
   <si>
     <t>You're going after AERIS, right?</t>
@@ -17312,9 +17336,6 @@
   </si>
   <si>
     <t>必ず迎えにくるんだよ。死んじゃいけないよ}</t>
-  </si>
-  <si>
-    <t>AERIS's House</t>
   </si>
   <si>
     <t>AERITH's House</t>
@@ -18417,11 +18438,11 @@
     </font>
     <font>
       <sz val="18.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="18.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -18451,7 +18472,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -18464,22 +18485,16 @@
     <xf quotePrefix="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -51660,3795 +51675,3859 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>5594</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>5595</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>5596</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5597</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>5598</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>5599</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>5600</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5601</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>5602</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>5603</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>5604</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>5605</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>5606</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>5607</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>5608</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>5610</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>5611</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>5612</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>5613</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>5614</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>5615</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>5616</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>5617</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>5618</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>5619</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>5620</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>5621</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>5622</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>5623</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>5624</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>5625</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>5626</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>5627</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>5628</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>5629</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>5630</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>5631</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>5632</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>5633</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>2643</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>5635</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>5636</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>2643</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>5637</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>5638</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>5639</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>5640</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>2643</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>5641</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>5642</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>5643</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>5644</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>5645</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="5" t="s">
         <v>5646</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>5647</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>5648</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>5649</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>5650</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>5651</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>5652</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>5653</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="4" t="s">
         <v>5432</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>5433</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>5654</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>5655</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="5" t="s">
         <v>2643</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>5656</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="5" t="s">
         <v>5657</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="4" t="s">
         <v>5432</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>5433</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>5658</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>5659</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="4" t="s">
         <v>5660</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="5" t="s">
         <v>5661</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="4" t="s">
         <v>5662</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="5" t="s">
         <v>5663</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="4" t="s">
         <v>5432</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="5" t="s">
         <v>5433</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="4" t="s">
         <v>5664</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="5" t="s">
         <v>5665</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="4" t="s">
         <v>5666</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>5667</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>5668</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="5" t="s">
         <v>5669</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>2643</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="4" t="s">
         <v>5670</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>5671</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="4" t="s">
         <v>5432</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>5433</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="4" t="s">
         <v>5672</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
         <v>5673</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>2643</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="4" t="s">
         <v>5674</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>5675</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>5676</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="5" t="s">
         <v>5677</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="4" t="s">
         <v>5678</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="5" t="s">
         <v>5679</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="4" t="s">
         <v>5680</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="5" t="s">
         <v>5681</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="4" t="s">
         <v>5682</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="5" t="s">
         <v>5683</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="4" t="s">
         <v>5684</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="5" t="s">
         <v>5685</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="4" t="s">
         <v>5686</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="5" t="s">
         <v>5687</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="4" t="s">
         <v>5688</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="5" t="s">
         <v>5689</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="4" t="s">
         <v>5690</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="5" t="s">
         <v>5691</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="4" t="s">
         <v>5692</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="5" t="s">
         <v>5693</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="4" t="s">
         <v>5694</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="5" t="s">
         <v>5695</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="4" t="s">
         <v>5696</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="5" t="s">
         <v>5697</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>5698</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="5" t="s">
         <v>5699</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="4" t="s">
         <v>5700</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="5" t="s">
         <v>5701</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="4" t="s">
         <v>5702</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="5" t="s">
         <v>5703</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="7" t="s">
         <v>5704</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="5" t="s">
         <v>5705</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="4" t="s">
         <v>5706</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>5707</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="4" t="s">
         <v>5708</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="5" t="s">
         <v>5709</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="4" t="s">
         <v>5710</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="5" t="s">
         <v>5711</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="4" t="s">
         <v>5712</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="5" t="s">
         <v>5713</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="4" t="s">
         <v>5714</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="5" t="s">
         <v>5715</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="4" t="s">
         <v>5716</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="5" t="s">
         <v>5717</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="4" t="s">
         <v>5718</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="5" t="s">
         <v>5719</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="5" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="5" t="s">
         <v>5720</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="4" t="s">
         <v>5573</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="5" t="s">
         <v>5574</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="4" t="s">
         <v>5721</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="5" t="s">
         <v>5722</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="5" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="4" t="s">
         <v>5723</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="5" t="s">
         <v>5724</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="4" t="s">
         <v>5725</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="5" t="s">
         <v>5726</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="4" t="s">
         <v>5727</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="5" t="s">
         <v>5728</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="5" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="4" t="s">
         <v>5729</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="5" t="s">
         <v>5730</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="4" t="s">
         <v>5731</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="5" t="s">
         <v>5732</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="4" t="s">
         <v>5733</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="5" t="s">
         <v>5734</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="4" t="s">
         <v>5735</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="5" t="s">
         <v>5736</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="5" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="4" t="s">
         <v>5737</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="5" t="s">
         <v>5738</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="5" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="4" t="s">
         <v>5739</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="5" t="s">
         <v>5740</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" s="8" t="s">
+      <c r="A135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="4" t="s">
         <v>5741</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="5" t="s">
         <v>5742</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="4" t="s">
+        <v>5743</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
+        <v>5745</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B145" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="7" t="s">
-        <v>5743</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>5744</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="7" t="s">
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>5752</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B147" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="7" t="s">
-        <v>5745</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>5746</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="7" t="s">
+    <row r="148">
+      <c r="A148" s="4" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="s">
+        <v>5755</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="s">
+        <v>5757</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
+        <v>5759</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="s">
+        <v>5763</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="s">
+        <v>5765</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="s">
+        <v>5767</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="s">
+        <v>5769</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
         <v>5747</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>5748</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="7" t="s">
+      <c r="B167" s="5" t="s">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="s">
+        <v>5774</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B170" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="7" t="s">
-        <v>5749</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="7" t="s">
+    <row r="171">
+      <c r="A171" s="4" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="s">
+        <v>5778</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B174" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="7" t="s">
-        <v>5751</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>5752</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="7" t="s">
+    <row r="175">
+      <c r="A175" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B176" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="7" t="s">
-        <v>5753</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>5754</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="7" t="s">
+    <row r="177">
+      <c r="A177" s="4" t="s">
+        <v>5781</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="s">
+        <v>5783</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="s">
+        <v>5785</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="s">
+        <v>5787</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="s">
+        <v>5789</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="s">
+        <v>5791</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B185" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="7" t="s">
-        <v>5755</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>5756</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="7" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="7" t="s">
-        <v>5757</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>5758</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="7" t="s">
+    <row r="186">
+      <c r="A186" s="4" t="s">
+        <v>5793</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="s">
+        <v>5795</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B189" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="7" t="s">
-        <v>5759</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="7" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="7" t="s">
-        <v>5761</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>5762</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="7" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="7" t="s">
-        <v>5763</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>5764</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="7" t="s">
-        <v>5765</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>5766</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="7" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="7" t="s">
-        <v>5767</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>5768</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="7" t="s">
+    <row r="190">
+      <c r="A190" s="4" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="s">
+        <v>5799</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="s">
+        <v>5803</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="s">
+        <v>5808</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="s">
+        <v>5814</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="s">
+        <v>5818</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="s">
+        <v>5820</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="s">
+        <v>5824</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>5829</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="s">
+        <v>5830</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B223" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="7" t="s">
-        <v>5769</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>5770</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="7" t="s">
+    <row r="224">
+      <c r="A224" s="4" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B225" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="7" t="s">
-        <v>5771</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>5772</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="7" t="s">
+    <row r="226">
+      <c r="A226" s="4" t="s">
+        <v>5838</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B227" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="7" t="s">
+    <row r="228">
+      <c r="A228" s="4" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="4" t="s">
+        <v>5842</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="4" t="s">
+        <v>5844</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="4" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="s">
+        <v>5846</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="4" t="s">
+        <v>5848</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="4" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="4" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="4" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="4" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="4" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="4" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="4" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="4" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="4" t="s">
+        <v>5866</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="4" t="s">
+        <v>5868</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="4" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="4" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="4" t="s">
+        <v>5874</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="4" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="4" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="4" t="s">
+        <v>5879</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="4" t="s">
+        <v>5881</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="4" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="4" t="s">
+        <v>5885</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="4" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="4" t="s">
+        <v>5889</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="4" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="4" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>5773</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="7" t="s">
+      <c r="B285" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="4" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="4" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B290" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="7" t="s">
-        <v>5774</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>5775</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="7" t="s">
-        <v>3359</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="7" t="s">
-        <v>5776</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>5777</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="7" t="s">
-        <v>5778</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>5779</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="7" t="s">
-        <v>5780</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>5781</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="7" t="s">
+    <row r="291">
+      <c r="A291" s="4" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B292" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="7" t="s">
-        <v>5782</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>5783</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="7" t="s">
-        <v>5784</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>5785</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="7" t="s">
+    <row r="293">
+      <c r="A293" s="4" t="s">
+        <v>5901</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="4" t="s">
+        <v>5903</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B296" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="7" t="s">
-        <v>5786</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>5787</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="7" t="s">
-        <v>5788</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>5789</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="7" t="s">
+    <row r="297">
+      <c r="A297" s="4" t="s">
+        <v>5905</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="4" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B300" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="7" t="s">
-        <v>5790</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>5791</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="7" t="s">
-        <v>5792</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>5793</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="7" t="s">
+    <row r="301">
+      <c r="A301" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="4" t="s">
+        <v>5909</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B304" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="7" t="s">
-        <v>5794</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>5795</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="7" t="s">
-        <v>5796</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>5797</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="7" t="s">
-        <v>5798</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="7" t="s">
-        <v>5801</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>5802</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="7" t="s">
-        <v>5803</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>5804</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="7" t="s">
-        <v>5805</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>5806</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="7" t="s">
-        <v>5807</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>5808</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="7" t="s">
-        <v>5809</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>5810</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="7" t="s">
-        <v>5811</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>5812</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="7" t="s">
-        <v>5813</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>5814</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="7" t="s">
-        <v>5815</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>5816</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="7" t="s">
-        <v>5817</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>5818</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="7" t="s">
-        <v>5819</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>5820</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="7" t="s">
-        <v>5821</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>5822</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="7" t="s">
-        <v>5823</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>5824</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="7" t="s">
-        <v>5825</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>5826</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="7" t="s">
+    <row r="305">
+      <c r="A305" s="4" t="s">
+        <v>5911</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="4" t="s">
+        <v>5913</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="4" t="s">
+        <v>5915</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="4" t="s">
+        <v>5917</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="4" t="s">
+        <v>5918</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B313" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="7" t="s">
-        <v>5827</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>5828</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="7" t="s">
+    <row r="314">
+      <c r="A314" s="4" t="s">
+        <v>5920</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B315" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="7" t="s">
-        <v>5829</v>
-      </c>
-      <c r="B216" s="8" t="s">
+    <row r="316">
+      <c r="A316" s="4" t="s">
+        <v>5922</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="4" t="s">
+        <v>5924</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="4" t="s">
+        <v>5927</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="4" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="4" t="s">
+        <v>5929</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="4" t="s">
+        <v>5931</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="4" t="s">
+        <v>5933</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="4" t="s">
+        <v>5935</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="4" t="s">
+        <v>5937</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="4" t="s">
         <v>5830</v>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="7" t="s">
+      <c r="B329" s="5" t="s">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B330" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="7" t="s">
-        <v>5831</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>5832</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="7" t="s">
+    <row r="331">
+      <c r="A331" s="4" t="s">
+        <v>5939</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B332" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="7" t="s">
-        <v>5833</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>5834</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="7" t="s">
+    <row r="333">
+      <c r="A333" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="4" t="s">
+        <v>5942</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B336" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="7" t="s">
-        <v>5835</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>5836</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="7" t="s">
+    <row r="337">
+      <c r="A337" s="4" t="s">
+        <v>5944</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="4" t="s">
+        <v>5946</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="4" t="s">
+        <v>5948</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="4" t="s">
+        <v>5950</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B341" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="7" t="s">
-        <v>5837</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>5838</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="7" t="s">
-        <v>5825</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>5826</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="7" t="s">
+    <row r="342">
+      <c r="A342" s="4" t="s">
+        <v>5952</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B343" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="7" t="s">
-        <v>5839</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>5840</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="7" t="s">
-        <v>5841</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>5842</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="7" t="s">
-        <v>5843</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>5844</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="7" t="s">
+    <row r="344">
+      <c r="A344" s="4" t="s">
+        <v>5954</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="4" t="s">
+        <v>5956</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B347" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="7" t="s">
-        <v>5845</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>5846</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="7" t="s">
-        <v>5847</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>5848</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="7" t="s">
+    <row r="348">
+      <c r="A348" s="4" t="s">
+        <v>5958</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="4" t="s">
+        <v>5960</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="4" t="s">
+        <v>5962</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="4" t="s">
+        <v>5964</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="4" t="s">
+        <v>5966</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B354" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="7" t="s">
-        <v>5849</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="7" t="s">
-        <v>5851</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>5852</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="7" t="s">
+    <row r="355">
+      <c r="A355" s="4" t="s">
+        <v>5968</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="4" t="s">
+        <v>5970</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="4" t="s">
+        <v>5972</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="4" t="s">
+        <v>5974</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="4" t="s">
+        <v>5976</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="4" t="s">
+        <v>5978</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="4" t="s">
+        <v>5980</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B363" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="7" t="s">
-        <v>5853</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>5854</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="7" t="s">
+    <row r="364">
+      <c r="A364" s="4" t="s">
+        <v>5982</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="4" t="s">
+        <v>5984</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="4" t="s">
+        <v>5986</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="4" t="s">
+        <v>5988</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="4" t="s">
+        <v>5990</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="4" t="s">
+        <v>5992</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="4" t="s">
+        <v>5994</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="4" t="s">
+        <v>5996</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="4" t="s">
+        <v>5998</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="4" t="s">
+        <v>6000</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="4" t="s">
+        <v>6002</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="4" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="4" t="s">
+        <v>6006</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="4" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="4" t="s">
+        <v>6010</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="4" t="s">
+        <v>6012</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="4" t="s">
+        <v>6014</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="4" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="4" t="s">
+        <v>6018</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="4" t="s">
+        <v>6020</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="4" t="s">
+        <v>6018</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="4" t="s">
+        <v>6020</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="4" t="s">
+        <v>6024</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="4" t="s">
+        <v>6026</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="4" t="s">
+        <v>6028</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="4" t="s">
+        <v>6030</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="4" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="4" t="s">
+        <v>6033</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="4" t="s">
+        <v>6035</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="4" t="s">
+        <v>6037</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="4" t="s">
+        <v>6039</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="4" t="s">
+        <v>6041</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="4" t="s">
+        <v>6043</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="4" t="s">
+        <v>6045</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="4" t="s">
+        <v>6047</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B408" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="7" t="s">
+    <row r="409">
+      <c r="A409" s="4" t="s">
+        <v>6049</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="4" t="s">
+        <v>6051</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="4" t="s">
+        <v>6053</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="4" t="s">
+        <v>6055</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="4" t="s">
+        <v>6057</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="4" t="s">
+        <v>6059</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="4" t="s">
+        <v>6061</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="4" t="s">
+        <v>6063</v>
+      </c>
+      <c r="B422" s="5" t="s">
         <v>5855</v>
       </c>
-      <c r="B243" s="8" t="s">
-        <v>5856</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="7" t="s">
+    </row>
+    <row r="423">
+      <c r="A423" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="4" t="s">
+        <v>6064</v>
+      </c>
+      <c r="B424" s="5" t="s">
         <v>5857</v>
       </c>
-      <c r="B245" s="8" t="s">
-        <v>5858</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="7" t="s">
+    </row>
+    <row r="425">
+      <c r="A425" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="4" t="s">
+        <v>6065</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B427" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="7" t="s">
-        <v>5859</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>5860</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="7" t="s">
+    <row r="428">
+      <c r="A428" s="4" t="s">
+        <v>6066</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="4" t="s">
+        <v>6067</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B431" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="7" t="s">
-        <v>5861</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>5862</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="7" t="s">
+    <row r="432">
+      <c r="A432" s="4" t="s">
+        <v>6069</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B433" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="7" t="s">
-        <v>5863</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>5864</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="7" t="s">
+    <row r="434">
+      <c r="A434" s="4" t="s">
+        <v>6071</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="4" t="s">
+        <v>6073</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B437" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="7" t="s">
-        <v>5865</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>5866</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="7" t="s">
+    <row r="438">
+      <c r="A438" s="4" t="s">
+        <v>6075</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="4" t="s">
+        <v>6077</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="4" t="s">
+        <v>6079</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="4" t="s">
+        <v>6077</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="4" t="s">
+        <v>6082</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="4" t="s">
+        <v>6084</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="4" t="s">
+        <v>6086</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B445" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="7" t="s">
-        <v>5867</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>5868</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="7" t="s">
+    <row r="446">
+      <c r="A446" s="4" t="s">
+        <v>6088</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="4" t="s">
+        <v>6090</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B450" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="7" t="s">
-        <v>5869</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>5870</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="7" t="s">
+    <row r="451">
+      <c r="A451" s="4" t="s">
+        <v>6092</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="4" t="s">
+        <v>6094</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="4" t="s">
+        <v>6096</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="4" t="s">
+        <v>6098</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="4" t="s">
+        <v>6100</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="4" t="s">
+        <v>6102</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="4" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="4" t="s">
+        <v>6106</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="4" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="4" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="4" t="s">
+        <v>6112</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B465" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="7" t="s">
-        <v>3761</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>5871</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="7" t="s">
+    <row r="466">
+      <c r="A466" s="4" t="s">
+        <v>6114</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B467" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="7" t="s">
-        <v>5872</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>5873</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="7" t="s">
+    <row r="468">
+      <c r="A468" s="4" t="s">
+        <v>6116</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="4" t="s">
+        <v>6118</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="4" t="s">
+        <v>6120</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B473" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="7" t="s">
-        <v>5874</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>5875</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="7" t="s">
+    <row r="474">
+      <c r="A474" s="4" t="s">
+        <v>6122</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B475" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="7" t="s">
-        <v>5876</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>5877</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="7" t="s">
+    <row r="476">
+      <c r="A476" s="4" t="s">
+        <v>6124</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="4" t="s">
+        <v>6126</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="4" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B480" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="7" t="s">
-        <v>5878</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>5879</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="7" t="s">
-        <v>5880</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>5881</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="7" t="s">
-        <v>5882</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="7" t="s">
-        <v>5884</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>5885</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="7" t="s">
-        <v>5886</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>5887</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="7" t="s">
-        <v>5888</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>5889</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="7" t="s">
-        <v>5890</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>5891</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="7" t="s">
-        <v>5892</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="7" t="s">
-        <v>5894</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>5895</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="7" t="s">
-        <v>5896</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>5897</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="7" t="s">
-        <v>5898</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>5899</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="7" t="s">
-        <v>5900</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>5901</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="7" t="s">
-        <v>5902</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>5903</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="7" t="s">
-        <v>5904</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>5905</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="7" t="s">
-        <v>5906</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>5907</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="7" t="s">
-        <v>5908</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>5909</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="7" t="s">
-        <v>5910</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="7" t="s">
-        <v>5911</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>5912</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B305" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="7" t="s">
-        <v>5913</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>5914</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="7" t="s">
-        <v>5915</v>
-      </c>
-      <c r="B308" s="8" t="s">
-        <v>5916</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="7" t="s">
-        <v>5917</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="7" t="s">
-        <v>2923</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>5919</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="7" t="s">
-        <v>5920</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>5921</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="7" t="s">
-        <v>5825</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>5826</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B314" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="7" t="s">
-        <v>5922</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>5923</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="7" t="s">
-        <v>5924</v>
-      </c>
-      <c r="B316" s="8" t="s">
-        <v>5925</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="7" t="s">
-        <v>5926</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>5927</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="7" t="s">
-        <v>5928</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>5929</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="7" t="s">
-        <v>5930</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>5931</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="7" t="s">
-        <v>5823</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>5824</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B322" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="7" t="s">
-        <v>5932</v>
-      </c>
-      <c r="B323" s="8" t="s">
-        <v>5933</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>5934</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B326" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="7" t="s">
-        <v>5935</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>5936</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="7" t="s">
-        <v>5937</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="7" t="s">
-        <v>5939</v>
-      </c>
-      <c r="B330" s="8" t="s">
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="7" t="s">
-        <v>5941</v>
-      </c>
-      <c r="B331" s="8" t="s">
-        <v>5942</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="7" t="s">
-        <v>5943</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>5944</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="7" t="s">
-        <v>5945</v>
-      </c>
-      <c r="B334" s="8" t="s">
-        <v>5946</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="7" t="s">
-        <v>5947</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>5948</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B337" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="7" t="s">
-        <v>5949</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>5950</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B339" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="7" t="s">
-        <v>5951</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>5952</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="7" t="s">
-        <v>5953</v>
-      </c>
-      <c r="B342" s="8" t="s">
-        <v>5954</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="7" t="s">
-        <v>5955</v>
-      </c>
-      <c r="B343" s="8" t="s">
-        <v>5956</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="7" t="s">
-        <v>5957</v>
-      </c>
-      <c r="B344" s="8" t="s">
-        <v>5958</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="7" t="s">
-        <v>5959</v>
-      </c>
-      <c r="B345" s="8" t="s">
-        <v>5960</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B346" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="7" t="s">
-        <v>5961</v>
-      </c>
-      <c r="B347" s="8" t="s">
-        <v>5962</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B348" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="7" t="s">
-        <v>5963</v>
-      </c>
-      <c r="B349" s="8" t="s">
-        <v>5964</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="7" t="s">
-        <v>5965</v>
-      </c>
-      <c r="B350" s="8" t="s">
-        <v>5966</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="7" t="s">
-        <v>5967</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>5968</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="7" t="s">
-        <v>5969</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>5970</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="7" t="s">
-        <v>5971</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>5972</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="7" t="s">
-        <v>5973</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>5974</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="7" t="s">
-        <v>5975</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>5976</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="7" t="s">
-        <v>5977</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>5978</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="7" t="s">
-        <v>5979</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="7" t="s">
-        <v>5981</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>5982</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="7" t="s">
-        <v>5983</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>5984</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="7" t="s">
-        <v>5985</v>
-      </c>
-      <c r="B361" s="8" t="s">
-        <v>5986</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="7" t="s">
-        <v>5987</v>
-      </c>
-      <c r="B363" s="8" t="s">
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="7" t="s">
-        <v>5989</v>
-      </c>
-      <c r="B364" s="8" t="s">
-        <v>5990</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="7" t="s">
-        <v>5991</v>
-      </c>
-      <c r="B365" s="8" t="s">
-        <v>5992</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="7" t="s">
-        <v>5993</v>
-      </c>
-      <c r="B366" s="8" t="s">
-        <v>5994</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="7" t="s">
-        <v>5995</v>
-      </c>
-      <c r="B367" s="8" t="s">
-        <v>5996</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="7" t="s">
-        <v>5997</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>5998</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B369" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B370" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="7" t="s">
-        <v>5999</v>
-      </c>
-      <c r="B371" s="8" t="s">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="7" t="s">
-        <v>6001</v>
-      </c>
-      <c r="B372" s="8" t="s">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="7" t="s">
-        <v>6003</v>
-      </c>
-      <c r="B373" s="8" t="s">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="7" t="s">
-        <v>6005</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="7" t="s">
-        <v>6007</v>
-      </c>
-      <c r="B375" s="8" t="s">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="7" t="s">
-        <v>6009</v>
-      </c>
-      <c r="B376" s="8" t="s">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="7" t="s">
-        <v>6011</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>6012</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="7" t="s">
-        <v>6013</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>6014</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="7" t="s">
-        <v>6011</v>
-      </c>
-      <c r="B381" s="8" t="s">
-        <v>6015</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="7" t="s">
-        <v>6013</v>
-      </c>
-      <c r="B382" s="8" t="s">
-        <v>6016</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="7" t="s">
-        <v>6017</v>
-      </c>
-      <c r="B383" s="8" t="s">
-        <v>6018</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="7" t="s">
-        <v>6019</v>
-      </c>
-      <c r="B384" s="8" t="s">
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B385" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="7" t="s">
-        <v>6021</v>
-      </c>
-      <c r="B386" s="8" t="s">
-        <v>6022</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="7" t="s">
-        <v>6023</v>
-      </c>
-      <c r="B387" s="8" t="s">
-        <v>6024</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="7" t="s">
-        <v>3769</v>
-      </c>
-      <c r="B388" s="8" t="s">
-        <v>6025</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="7" t="s">
-        <v>6026</v>
-      </c>
-      <c r="B389" s="8" t="s">
-        <v>6027</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="7" t="s">
-        <v>6028</v>
-      </c>
-      <c r="B390" s="8" t="s">
-        <v>6029</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="7" t="s">
-        <v>6030</v>
-      </c>
-      <c r="B391" s="8" t="s">
-        <v>6031</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="7" t="s">
-        <v>6032</v>
-      </c>
-      <c r="B392" s="8" t="s">
-        <v>6033</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="7" t="s">
-        <v>6034</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>6035</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B394" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="7" t="s">
-        <v>6036</v>
-      </c>
-      <c r="B395" s="8" t="s">
-        <v>6037</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="7" t="s">
-        <v>6038</v>
-      </c>
-      <c r="B397" s="8" t="s">
-        <v>6039</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B398" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="7" t="s">
-        <v>6040</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>6041</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="7" t="s">
-        <v>6042</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>6043</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="7" t="s">
-        <v>6044</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>6045</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="7" t="s">
-        <v>6046</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>6047</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="7" t="s">
-        <v>6048</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>6049</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B408" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="7" t="s">
-        <v>6050</v>
-      </c>
-      <c r="B409" s="8" t="s">
-        <v>6051</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="7" t="s">
-        <v>6052</v>
-      </c>
-      <c r="B410" s="8" t="s">
-        <v>6053</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B411" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="7" t="s">
-        <v>6054</v>
-      </c>
-      <c r="B412" s="8" t="s">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B413" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="7" t="s">
-        <v>6056</v>
-      </c>
-      <c r="B414" s="8" t="s">
-        <v>5848</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B415" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="7" t="s">
-        <v>6057</v>
-      </c>
-      <c r="B416" s="8" t="s">
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B417" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="7" t="s">
-        <v>6058</v>
-      </c>
-      <c r="B418" s="8" t="s">
-        <v>5852</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B419" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="7" t="s">
-        <v>6059</v>
-      </c>
-      <c r="B420" s="8" t="s">
-        <v>5854</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B421" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="7" t="s">
-        <v>6060</v>
-      </c>
-      <c r="B422" s="8" t="s">
-        <v>6061</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B423" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="7" t="s">
-        <v>6062</v>
-      </c>
-      <c r="B424" s="8" t="s">
-        <v>6063</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B425" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="7" t="s">
-        <v>6064</v>
-      </c>
-      <c r="B426" s="8" t="s">
-        <v>6065</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B427" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="7" t="s">
-        <v>6066</v>
-      </c>
-      <c r="B428" s="8" t="s">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B429" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="7" t="s">
-        <v>6068</v>
-      </c>
-      <c r="B430" s="8" t="s">
-        <v>6069</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="7" t="s">
-        <v>6070</v>
-      </c>
-      <c r="B431" s="8" t="s">
-        <v>6071</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="7" t="s">
-        <v>6072</v>
-      </c>
-      <c r="B432" s="8" t="s">
-        <v>6073</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="7" t="s">
-        <v>6070</v>
-      </c>
-      <c r="B433" s="8" t="s">
-        <v>6074</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="7" t="s">
-        <v>6075</v>
-      </c>
-      <c r="B434" s="8" t="s">
-        <v>6076</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="7" t="s">
-        <v>6077</v>
-      </c>
-      <c r="B435" s="8" t="s">
-        <v>6078</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="7" t="s">
-        <v>6079</v>
-      </c>
-      <c r="B436" s="8" t="s">
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B437" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="7" t="s">
-        <v>6081</v>
-      </c>
-      <c r="B438" s="8" t="s">
-        <v>6082</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="7" t="s">
-        <v>6083</v>
-      </c>
-      <c r="B439" s="8" t="s">
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="B440" s="8" t="s">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="B441" s="8" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B442" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="7" t="s">
-        <v>6085</v>
-      </c>
-      <c r="B443" s="8" t="s">
-        <v>6086</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B444" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="7" t="s">
-        <v>6087</v>
-      </c>
-      <c r="B445" s="8" t="s">
-        <v>6088</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="7" t="s">
-        <v>6089</v>
-      </c>
-      <c r="B446" s="8" t="s">
-        <v>6090</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B447" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="7" t="s">
-        <v>6091</v>
-      </c>
-      <c r="B448" s="8" t="s">
-        <v>6092</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="7" t="s">
-        <v>6093</v>
-      </c>
-      <c r="B449" s="8" t="s">
-        <v>6094</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="7" t="s">
-        <v>6095</v>
-      </c>
-      <c r="B450" s="8" t="s">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="7" t="s">
-        <v>6097</v>
-      </c>
-      <c r="B451" s="8" t="s">
-        <v>6098</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="7" t="s">
-        <v>6099</v>
-      </c>
-      <c r="B452" s="8" t="s">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="7" t="s">
-        <v>6101</v>
-      </c>
-      <c r="B453" s="8" t="s">
-        <v>6102</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B454" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="7" t="s">
-        <v>6103</v>
-      </c>
-      <c r="B455" s="8" t="s">
-        <v>6104</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="7" t="s">
-        <v>6105</v>
-      </c>
-      <c r="B456" s="8" t="s">
-        <v>6106</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B457" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="7" t="s">
-        <v>6107</v>
-      </c>
-      <c r="B458" s="8" t="s">
-        <v>6108</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B459" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="7" t="s">
-        <v>6109</v>
-      </c>
-      <c r="B460" s="8" t="s">
-        <v>6110</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B461" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="7" t="s">
-        <v>6111</v>
-      </c>
-      <c r="B462" s="8" t="s">
-        <v>6112</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B463" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="7" t="s">
-        <v>6113</v>
-      </c>
-      <c r="B464" s="8" t="s">
-        <v>6114</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="7" t="s">
-        <v>6115</v>
-      </c>
-      <c r="B466" s="8" t="s">
-        <v>6116</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B467" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="7" t="s">
-        <v>6117</v>
-      </c>
-      <c r="B468" s="8" t="s">
-        <v>6118</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B469" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="7" t="s">
-        <v>6119</v>
-      </c>
-      <c r="B470" s="8" t="s">
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="7" t="s">
-        <v>6121</v>
-      </c>
-      <c r="B471" s="8" t="s">
-        <v>6122</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B472" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="7" t="s">
-        <v>6123</v>
-      </c>
-      <c r="B473" s="8" t="s">
-        <v>6124</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="7" t="s">
-        <v>6125</v>
-      </c>
-      <c r="B474" s="8" t="s">
-        <v>6126</v>
+    <row r="481">
+      <c r="A481" s="4" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="4" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>6133</v>
       </c>
     </row>
   </sheetData>
